--- a/data_excel/769.xlsx
+++ b/data_excel/769.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,9 +96,6 @@
     <t>借走</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
     <t>了</t>
   </si>
   <si>
@@ -106,6 +103,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,8 +156,21 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -172,8 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +495,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,16 +612,16 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -617,7 +632,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>

--- a/data_excel/769.xlsx
+++ b/data_excel/769.xlsx
@@ -51,9 +51,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -107,6 +104,10 @@
   </si>
   <si>
     <t>nv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +136,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -186,10 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -495,12 +504,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -533,8 +542,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -542,19 +551,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -562,66 +571,66 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -632,24 +641,24 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
